--- a/office/LAB13.xlsx
+++ b/office/LAB13.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E51EF54-C244-4CA3-ABE6-2B555BF2EB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{C296A3C5-FD37-4B26-A292-F41F1C4EB119}"/>
+    <workbookView xWindow="2688" yWindow="-120" windowWidth="37716" windowHeight="21840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="X">Лист1!$A$1</definedName>
     <definedName name="Y">Лист1!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +27,12 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,19 +378,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CD6602-5AF9-4743-80CA-9DE4516F4EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>12</v>
       </c>
@@ -403,18 +406,18 @@
       </c>
       <c r="F1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1">
         <f t="shared" ref="G1:H4" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>SIN(75*PI()/180)</f>
         <v>0.96592582628906831</v>
@@ -425,32 +428,32 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F4" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>LOG(Y+9,X)</f>
         <v>1.1157717826045193</v>
@@ -465,34 +468,30 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>ROUND( LOG(Y+9,X),3)</f>
-        <v>1.1160000000000001</v>
+        <f>ROUND(1.11577178260452, 2)</f>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B5">
         <f>ODD(B4)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F6">
         <f ca="1">SUMSQ(F1:H4)</f>
-        <v>443</v>
-      </c>
-      <c r="G6">
-        <f ca="1">SUMIF(F1:H4,"&lt; 4")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>EXP(PI())</f>
         <v>23.140692632779267</v>

--- a/office/LAB13.xlsx
+++ b/office/LAB13.xlsx
@@ -25,10 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,15 +402,15 @@
       </c>
       <c r="F1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1">
         <f t="shared" ref="G1:H4" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -428,25 +424,25 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F4" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
@@ -468,7 +464,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
@@ -488,7 +484,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F6">
         <f ca="1">SUMSQ(F1:H4)</f>
-        <v>683</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
